--- a/results/input_sweep_r17/h2000_M0.25_R1000km_PL1500kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1000km_PL1500kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.98387971900983</v>
+        <v>82.66626039615082</v>
       </c>
       <c r="F2" t="n">
-        <v>82.98387971900983</v>
+        <v>82.66626039615082</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9677594380197</v>
+        <v>165.3325207923016</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9677594380197</v>
+        <v>165.3325207923016</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1608.399663125452</v>
+        <v>1602.243538686439</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.931646436559</v>
+        <v>1204.304502987668</v>
       </c>
       <c r="G4" t="n">
-        <v>399.4680166888935</v>
+        <v>397.9390356987707</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1659.677594380197</v>
+        <v>1653.325207923016</v>
       </c>
       <c r="F5" t="n">
-        <v>1247.521794914645</v>
+        <v>1242.746952481077</v>
       </c>
       <c r="G5" t="n">
-        <v>412.1557994655516</v>
+        <v>410.5782554419396</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>182.5488694356231</v>
       </c>
       <c r="E6" t="n">
-        <v>659.3128561832667</v>
+        <v>656.7898482327579</v>
       </c>
       <c r="F6" t="n">
-        <v>659.3128561832667</v>
+        <v>656.7898482327579</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>659.3029949251421</v>
+        <v>525.4240193698143</v>
       </c>
       <c r="F7" t="n">
-        <v>659.3029949251421</v>
+        <v>525.4240193698143</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
